--- a/data/trans_orig/IP19C03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19C03-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C947CF3-441A-49F0-872A-7448E704451D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{970187AA-7AA2-44E3-8F3B-2E8242B64D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{94B63CAD-BFC8-45FF-9594-269F175AE3BD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D3504F0-9823-4088-ABD1-7822170A666C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
   <si>
     <t>Menores según su última visita al dentista fue por empastes en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>21,99%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
   </si>
   <si>
     <t>24,7%</t>
   </si>
   <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
   </si>
   <si>
     <t>23,41%</t>
   </si>
   <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>78,01%</t>
   </si>
   <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
   </si>
   <si>
     <t>75,3%</t>
   </si>
   <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
   </si>
   <si>
     <t>76,59%</t>
   </si>
   <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,790 +140,784 @@
     <t>17,0%</t>
   </si>
   <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
   </si>
   <si>
     <t>23,63%</t>
   </si>
   <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
   </si>
   <si>
     <t>20,2%</t>
   </si>
   <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por empastes en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por empastes en 2016 (Tasa respuesta: 48,82%)</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por empastes en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
     <t>17,26%</t>
   </si>
   <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
   </si>
   <si>
     <t>82,74%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
   </si>
   <si>
     <t>21,81%</t>
   </si>
   <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
   </si>
   <si>
     <t>78,19%</t>
   </si>
   <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por empastes en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por empastes en 2015 (Tasa respuesta: 48,82%)</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por empastes en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
+    <t>90,22%</t>
   </si>
   <si>
     <t>86,95%</t>
   </si>
   <si>
-    <t>90,39%</t>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
   </si>
   <si>
     <t>15,88%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
+    <t>19,22%</t>
   </si>
   <si>
     <t>16,93%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
   </si>
   <si>
     <t>16,37%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
   </si>
   <si>
     <t>84,12%</t>
   </si>
   <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
+    <t>80,78%</t>
   </si>
   <si>
     <t>83,07%</t>
   </si>
   <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
   </si>
   <si>
     <t>83,63%</t>
   </si>
   <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65B900B-34B8-443A-9CD1-2B1868B756DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E961B713-C6BB-4D18-BE98-13688BE53BC4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2086,7 +2080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B045FAF-796D-404A-8D66-7DD4B5024B16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD040F57-6EBC-41B0-9996-7AD8310EAA18}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2547,7 +2541,7 @@
         <v>26</v>
       </c>
       <c r="N10" s="7">
-        <v>18861</v>
+        <v>18860</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>131</v>
@@ -2649,7 +2643,7 @@
         <v>238</v>
       </c>
       <c r="N12" s="7">
-        <v>167674</v>
+        <v>167673</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2696,7 +2690,7 @@
         <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="M13" s="7">
         <v>213</v>
@@ -2705,13 +2699,13 @@
         <v>144064</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,13 +2720,13 @@
         <v>295454</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>396</v>
@@ -2741,13 +2735,13 @@
         <v>280409</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>815</v>
@@ -2756,13 +2750,13 @@
         <v>575863</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15B0721-04AC-4588-BB55-97914DD2275D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122C52F6-204A-4CE8-94CE-FA8ECE02227F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2854,7 +2848,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2961,13 +2955,13 @@
         <v>10399</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -2976,13 +2970,13 @@
         <v>6269</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -2991,13 +2985,13 @@
         <v>16668</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +3006,13 @@
         <v>17742</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -3027,13 +3021,13 @@
         <v>15870</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
@@ -3042,13 +3036,13 @@
         <v>33612</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3110,13 @@
         <v>46491</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>75</v>
@@ -3131,13 +3125,13 @@
         <v>48382</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="M7" s="7">
         <v>139</v>
@@ -3146,13 +3140,13 @@
         <v>94872</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3161,13 @@
         <v>206429</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>295</v>
@@ -3182,13 +3176,13 @@
         <v>204358</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>579</v>
@@ -3197,13 +3191,13 @@
         <v>410787</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3265,13 @@
         <v>10201</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -3286,13 +3280,13 @@
         <v>6980</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -3301,13 +3295,13 @@
         <v>17181</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3316,13 @@
         <v>77497</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>114</v>
@@ -3337,13 +3331,13 @@
         <v>80760</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>222</v>
@@ -3352,13 +3346,13 @@
         <v>158256</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3420,13 @@
         <v>67090</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -3444,10 +3438,10 @@
         <v>32</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>188</v>
@@ -3456,13 +3450,13 @@
         <v>128721</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3471,13 @@
         <v>301668</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>433</v>
@@ -3495,10 +3489,10 @@
         <v>41</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>850</v>
@@ -3507,13 +3501,13 @@
         <v>602655</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,7 +3582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F2C147-73DA-44E4-A4AB-22053465E5AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487975DF-9CE2-4277-9F67-8629BE9881A3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3605,7 +3599,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3712,13 +3706,13 @@
         <v>3804</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3727,13 +3721,13 @@
         <v>6168</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -3742,13 +3736,13 @@
         <v>9972</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3757,13 @@
         <v>20625</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -3778,13 +3772,13 @@
         <v>22971</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>57</v>
@@ -3793,13 +3787,13 @@
         <v>43596</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3861,13 @@
         <v>54958</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>111</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>67</v>
@@ -3882,13 +3876,13 @@
         <v>46345</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>140</v>
@@ -3897,13 +3891,13 @@
         <v>101303</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>59</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3912,13 @@
         <v>255773</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>121</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>300</v>
@@ -3933,13 +3927,13 @@
         <v>222104</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>599</v>
@@ -3948,13 +3942,13 @@
         <v>477878</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>67</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,13 +4016,13 @@
         <v>15059</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4037,13 +4031,13 @@
         <v>15226</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -4052,13 +4046,13 @@
         <v>30286</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4067,13 @@
         <v>114584</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>127</v>
@@ -4088,13 +4082,13 @@
         <v>87209</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>276</v>
@@ -4103,10 +4097,10 @@
         <v>201792</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>276</v>
@@ -4180,10 +4174,10 @@
         <v>277</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>97</v>
@@ -4192,13 +4186,13 @@
         <v>67739</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>192</v>
@@ -4207,13 +4201,13 @@
         <v>141561</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4222,13 @@
         <v>390982</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>457</v>
@@ -4243,13 +4237,13 @@
         <v>332285</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>932</v>
@@ -4258,13 +4252,13 @@
         <v>723265</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP19C03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19C03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{970187AA-7AA2-44E3-8F3B-2E8242B64D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A15B79D5-3925-48D4-8C7E-4D22E2F70874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D3504F0-9823-4088-ABD1-7822170A666C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{98331923-0C4C-4586-9F4C-ED1B0CEEC0CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
   <si>
     <t>Menores según su última visita al dentista fue por empastes en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
     <t>21,99%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
   </si>
   <si>
     <t>23,41%</t>
   </si>
   <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
     <t>78,01%</t>
   </si>
   <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
   </si>
   <si>
     <t>76,59%</t>
   </si>
   <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,169 +137,169 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
   </si>
   <si>
     <t>20,2%</t>
   </si>
   <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
   </si>
   <si>
     <t>83,0%</t>
   </si>
   <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
   </si>
   <si>
     <t>79,8%</t>
   </si>
   <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
   <si>
     <t>83,23%</t>
   </si>
   <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
   </si>
   <si>
     <t>86,89%</t>
   </si>
   <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
   </si>
   <si>
     <t>17,55%</t>
   </si>
   <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
   </si>
   <si>
     <t>19,12%</t>
   </si>
   <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
   </si>
   <si>
     <t>82,45%</t>
   </si>
   <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
   </si>
   <si>
     <t>80,88%</t>
   </si>
   <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -308,616 +308,622 @@
     <t>Menores según su última visita al dentista fue por empastes en 2012 (Tasa respuesta: 48,98%)</t>
   </si>
   <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
     <t>34,49%</t>
   </si>
   <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
   </si>
   <si>
     <t>29,44%</t>
   </si>
   <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
   </si>
   <si>
     <t>65,51%</t>
   </si>
   <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
   </si>
   <si>
     <t>70,56%</t>
   </si>
   <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
   </si>
   <si>
     <t>20,68%</t>
   </si>
   <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por empastes en 2016 (Tasa respuesta: 48,82%)</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por empastes en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
   </si>
   <si>
     <t>83,14%</t>
   </si>
   <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por empastes en 2016 (Tasa respuesta: 48,82%)</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por empastes en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
+    <t>80,73%</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E961B713-C6BB-4D18-BE98-13688BE53BC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BC80F8-E8EF-4476-9EDE-03D39A94A561}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1447,10 +1453,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>9430</v>
+        <v>11593</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1462,10 +1468,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>11593</v>
+        <v>9430</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1498,10 +1504,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" s="7">
-        <v>33461</v>
+        <v>35333</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1513,10 +1519,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I5" s="7">
-        <v>35333</v>
+        <v>33461</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1549,25 +1555,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>70</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46926</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>64</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>42891</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>70</v>
-      </c>
-      <c r="I6" s="7">
-        <v>46926</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1602,10 +1608,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D7" s="7">
-        <v>41781</v>
+        <v>53953</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1617,10 +1623,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="I7" s="7">
-        <v>53953</v>
+        <v>41781</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1653,10 +1659,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="D8" s="7">
-        <v>203942</v>
+        <v>174369</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1668,10 +1674,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="I8" s="7">
-        <v>174369</v>
+        <v>203942</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1704,25 +1710,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>343</v>
+      </c>
+      <c r="D9" s="7">
+        <v>228322</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>372</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>245723</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>343</v>
-      </c>
-      <c r="I9" s="7">
-        <v>228322</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1757,10 +1763,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>12260</v>
+        <v>7243</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1772,10 +1778,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>7243</v>
+        <v>12260</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1808,10 +1814,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D11" s="7">
-        <v>60857</v>
+        <v>68440</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1823,10 +1829,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I11" s="7">
-        <v>68440</v>
+        <v>60857</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1862,7 +1868,7 @@
         <v>109</v>
       </c>
       <c r="D12" s="7">
-        <v>73117</v>
+        <v>75683</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1877,7 +1883,7 @@
         <v>109</v>
       </c>
       <c r="I12" s="7">
-        <v>75683</v>
+        <v>73117</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1912,10 +1918,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D13" s="7">
-        <v>63471</v>
+        <v>72789</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1927,10 +1933,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="I13" s="7">
-        <v>72789</v>
+        <v>63471</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1963,10 +1969,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="D14" s="7">
-        <v>298260</v>
+        <v>278141</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1978,10 +1984,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="I14" s="7">
-        <v>278141</v>
+        <v>298260</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2014,25 +2020,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>522</v>
+      </c>
+      <c r="D15" s="7">
+        <v>350930</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>545</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>361731</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>522</v>
-      </c>
-      <c r="I15" s="7">
-        <v>350930</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2080,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD040F57-6EBC-41B0-9996-7AD8310EAA18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4269AA1D-9FF7-406E-8CFB-623F2A061120}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2198,10 +2204,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>15014</v>
+        <v>11734</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>89</v>
@@ -2213,10 +2219,10 @@
         <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>11734</v>
+        <v>15014</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2249,10 +2255,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D5" s="7">
-        <v>28521</v>
+        <v>35593</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>98</v>
@@ -2264,10 +2270,10 @@
         <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="I5" s="7">
-        <v>35593</v>
+        <v>28521</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -2300,25 +2306,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>68</v>
+      </c>
+      <c r="D6" s="7">
+        <v>47327</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>60</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>43535</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>68</v>
-      </c>
-      <c r="I6" s="7">
-        <v>47327</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2353,10 +2359,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D7" s="7">
-        <v>49828</v>
+        <v>48627</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>107</v>
@@ -2368,10 +2374,10 @@
         <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I7" s="7">
-        <v>48627</v>
+        <v>49828</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>110</v>
@@ -2395,7 +2401,7 @@
         <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,34 +2410,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>242</v>
+      </c>
+      <c r="D8" s="7">
+        <v>171851</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="7">
         <v>272</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>191085</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H8" s="7">
-        <v>242</v>
-      </c>
-      <c r="I8" s="7">
-        <v>171851</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>514</v>
@@ -2440,13 +2446,13 @@
         <v>362936</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,25 +2461,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>315</v>
+      </c>
+      <c r="D9" s="7">
+        <v>220478</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>347</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>240913</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>315</v>
-      </c>
-      <c r="I9" s="7">
-        <v>220478</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2508,34 +2514,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7">
+        <v>12583</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="7">
         <v>9</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>6277</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="7">
-        <v>17</v>
-      </c>
-      <c r="I10" s="7">
-        <v>12583</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -2544,13 +2550,13 @@
         <v>18860</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,34 +2565,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>103</v>
+      </c>
+      <c r="D11" s="7">
+        <v>72965</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="7">
         <v>109</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>75848</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H11" s="7">
-        <v>103</v>
-      </c>
-      <c r="I11" s="7">
-        <v>72965</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>212</v>
@@ -2595,13 +2601,13 @@
         <v>148813</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,25 +2616,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>120</v>
+      </c>
+      <c r="D12" s="7">
+        <v>85548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>118</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>82125</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>120</v>
-      </c>
-      <c r="I12" s="7">
-        <v>85548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2663,34 +2669,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>107</v>
+      </c>
+      <c r="D13" s="7">
+        <v>72944</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="7">
         <v>106</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>71120</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H13" s="7">
-        <v>107</v>
-      </c>
-      <c r="I13" s="7">
-        <v>72944</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="M13" s="7">
         <v>213</v>
@@ -2699,13 +2705,13 @@
         <v>144064</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,31 +2720,31 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>396</v>
+      </c>
+      <c r="D14" s="7">
+        <v>280409</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="7">
         <v>419</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>295454</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H14" s="7">
-        <v>396</v>
-      </c>
-      <c r="I14" s="7">
-        <v>280409</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>155</v>
@@ -2765,25 +2771,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>503</v>
+      </c>
+      <c r="D15" s="7">
+        <v>353353</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>525</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>366574</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>503</v>
-      </c>
-      <c r="I15" s="7">
-        <v>353353</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2831,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122C52F6-204A-4CE8-94CE-FA8ECE02227F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC27CA9-C056-47E2-ACD4-0DDAF4B1BD2A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2949,10 +2955,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>10399</v>
+        <v>6269</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>160</v>
@@ -2964,10 +2970,10 @@
         <v>162</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>6269</v>
+        <v>10399</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>163</v>
@@ -3000,10 +3006,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>17742</v>
+        <v>15870</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>169</v>
@@ -3015,10 +3021,10 @@
         <v>171</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>15870</v>
+        <v>17742</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>172</v>
@@ -3051,25 +3057,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7">
+        <v>22139</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>40</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>28141</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>33</v>
-      </c>
-      <c r="I6" s="7">
-        <v>22139</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3104,10 +3110,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D7" s="7">
-        <v>46491</v>
+        <v>48382</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>178</v>
@@ -3116,22 +3122,22 @@
         <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="7">
+        <v>64</v>
+      </c>
+      <c r="I7" s="7">
+        <v>46491</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="7">
-        <v>75</v>
-      </c>
-      <c r="I7" s="7">
-        <v>48382</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="M7" s="7">
         <v>139</v>
@@ -3143,10 +3149,10 @@
         <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,34 +3161,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D8" s="7">
-        <v>206429</v>
+        <v>204358</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>187</v>
       </c>
       <c r="H8" s="7">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="I8" s="7">
-        <v>204358</v>
+        <v>206429</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>579</v>
@@ -3191,13 +3197,13 @@
         <v>410787</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>64</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,25 +3212,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>370</v>
+      </c>
+      <c r="D9" s="7">
+        <v>252740</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>348</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>252920</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>370</v>
-      </c>
-      <c r="I9" s="7">
-        <v>252740</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3259,34 +3265,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6980</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="7">
         <v>15</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>10201</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H10" s="7">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7">
-        <v>6980</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -3295,13 +3301,13 @@
         <v>17181</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,34 +3316,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>114</v>
+      </c>
+      <c r="D11" s="7">
+        <v>80760</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" s="7">
         <v>108</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>77497</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H11" s="7">
-        <v>114</v>
-      </c>
-      <c r="I11" s="7">
-        <v>80760</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>222</v>
@@ -3346,13 +3352,13 @@
         <v>158256</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,25 +3367,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>124</v>
+      </c>
+      <c r="D12" s="7">
+        <v>87740</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>123</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>87698</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>124</v>
-      </c>
-      <c r="I12" s="7">
-        <v>87740</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3417,31 +3423,31 @@
         <v>94</v>
       </c>
       <c r="D13" s="7">
-        <v>67090</v>
+        <v>61631</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
       </c>
       <c r="I13" s="7">
-        <v>61631</v>
+        <v>67090</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>188</v>
@@ -3450,13 +3456,13 @@
         <v>128721</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,34 +3471,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>433</v>
+      </c>
+      <c r="D14" s="7">
+        <v>300987</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H14" s="7">
         <v>417</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>301668</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H14" s="7">
-        <v>433</v>
-      </c>
-      <c r="I14" s="7">
-        <v>300987</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>850</v>
@@ -3501,13 +3507,13 @@
         <v>602655</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,25 +3522,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>527</v>
+      </c>
+      <c r="D15" s="7">
+        <v>362618</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>511</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>368758</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>527</v>
-      </c>
-      <c r="I15" s="7">
-        <v>362618</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3582,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487975DF-9CE2-4277-9F67-8629BE9881A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408D75DA-499B-4AB7-98A8-7942754E3751}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3599,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3700,49 +3706,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7165</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="7">
         <v>4</v>
       </c>
-      <c r="D4" s="7">
-        <v>3804</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H4" s="7">
-        <v>7</v>
-      </c>
       <c r="I4" s="7">
-        <v>6168</v>
+        <v>3885</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>9972</v>
+        <v>11050</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>147</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,49 +3757,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7">
+        <v>22565</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H5" s="7">
         <v>27</v>
       </c>
-      <c r="D5" s="7">
-        <v>20625</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H5" s="7">
-        <v>30</v>
-      </c>
       <c r="I5" s="7">
-        <v>22971</v>
+        <v>21599</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>57</v>
       </c>
       <c r="N5" s="7">
-        <v>43596</v>
+        <v>44164</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,25 +3808,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>37</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29730</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>31</v>
       </c>
-      <c r="D6" s="7">
-        <v>24429</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>37</v>
-      </c>
       <c r="I6" s="7">
-        <v>29139</v>
+        <v>25484</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3835,7 +3841,7 @@
         <v>68</v>
       </c>
       <c r="N6" s="7">
-        <v>53568</v>
+        <v>55214</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3855,49 +3861,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>67</v>
+      </c>
+      <c r="D7" s="7">
+        <v>46329</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" s="7">
         <v>73</v>
       </c>
-      <c r="D7" s="7">
-        <v>54958</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H7" s="7">
-        <v>67</v>
-      </c>
       <c r="I7" s="7">
-        <v>46345</v>
+        <v>58420</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>140</v>
       </c>
       <c r="N7" s="7">
-        <v>101303</v>
+        <v>104749</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>59</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,49 +3912,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>300</v>
+      </c>
+      <c r="D8" s="7">
+        <v>215498</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H8" s="7">
         <v>299</v>
       </c>
-      <c r="D8" s="7">
-        <v>255773</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H8" s="7">
-        <v>300</v>
-      </c>
       <c r="I8" s="7">
-        <v>222104</v>
+        <v>264595</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>599</v>
       </c>
       <c r="N8" s="7">
-        <v>477878</v>
+        <v>480093</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>67</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,25 +3963,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>367</v>
+      </c>
+      <c r="D9" s="7">
+        <v>261827</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>372</v>
       </c>
-      <c r="D9" s="7">
-        <v>310731</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>367</v>
-      </c>
       <c r="I9" s="7">
-        <v>268449</v>
+        <v>323015</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3990,7 +3996,7 @@
         <v>739</v>
       </c>
       <c r="N9" s="7">
-        <v>579181</v>
+        <v>584842</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4010,49 +4016,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7">
+        <v>15412</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H10" s="7">
         <v>18</v>
       </c>
-      <c r="D10" s="7">
-        <v>15059</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H10" s="7">
-        <v>23</v>
-      </c>
       <c r="I10" s="7">
-        <v>15226</v>
+        <v>16483</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
       </c>
       <c r="N10" s="7">
-        <v>30286</v>
+        <v>31895</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,49 +4067,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>127</v>
+      </c>
+      <c r="D11" s="7">
+        <v>84664</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H11" s="7">
         <v>149</v>
       </c>
-      <c r="D11" s="7">
-        <v>114584</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H11" s="7">
-        <v>127</v>
-      </c>
       <c r="I11" s="7">
-        <v>87209</v>
+        <v>119462</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M11" s="7">
         <v>276</v>
       </c>
       <c r="N11" s="7">
-        <v>201792</v>
+        <v>204126</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,25 +4118,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>150</v>
+      </c>
+      <c r="D12" s="7">
+        <v>100076</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>167</v>
       </c>
-      <c r="D12" s="7">
-        <v>129643</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>150</v>
-      </c>
       <c r="I12" s="7">
-        <v>102435</v>
+        <v>135945</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4145,7 +4151,7 @@
         <v>317</v>
       </c>
       <c r="N12" s="7">
-        <v>232078</v>
+        <v>236021</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4165,49 +4171,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>97</v>
+      </c>
+      <c r="D13" s="7">
+        <v>68906</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H13" s="7">
         <v>95</v>
       </c>
-      <c r="D13" s="7">
-        <v>73821</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H13" s="7">
-        <v>97</v>
-      </c>
       <c r="I13" s="7">
-        <v>67739</v>
+        <v>78788</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>192</v>
       </c>
       <c r="N13" s="7">
-        <v>141561</v>
+        <v>147694</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,49 +4222,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>457</v>
+      </c>
+      <c r="D14" s="7">
+        <v>322727</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H14" s="7">
         <v>475</v>
       </c>
-      <c r="D14" s="7">
-        <v>390982</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H14" s="7">
-        <v>457</v>
-      </c>
       <c r="I14" s="7">
-        <v>332285</v>
+        <v>405656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>932</v>
       </c>
       <c r="N14" s="7">
-        <v>723265</v>
+        <v>728382</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,25 +4273,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>554</v>
+      </c>
+      <c r="D15" s="7">
+        <v>391633</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>570</v>
       </c>
-      <c r="D15" s="7">
-        <v>464803</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>554</v>
-      </c>
       <c r="I15" s="7">
-        <v>400024</v>
+        <v>484444</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4300,7 +4306,7 @@
         <v>1124</v>
       </c>
       <c r="N15" s="7">
-        <v>864826</v>
+        <v>876076</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
